--- a/dio_planilha.xlsx
+++ b/dio_planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F6D30-2C7B-4A03-917F-CF7615F5ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E47261E-7E16-4A6A-929A-DA6789E8AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="156" firstSheet="2" activeTab="2" xr2:uid="{06542312-DD58-49B1-9242-01D33429729A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="310" firstSheet="2" activeTab="2" xr2:uid="{06542312-DD58-49B1-9242-01D33429729A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="18" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="80">
   <si>
     <t>Data</t>
   </si>
@@ -80,12 +80,6 @@
     <t>ENTRADA</t>
   </si>
   <si>
-    <t>Renda fixa</t>
-  </si>
-  <si>
-    <t>Salário Mensal</t>
-  </si>
-  <si>
     <t>Transferência</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
   </si>
   <si>
     <t>Alimentação</t>
-  </si>
-  <si>
-    <t>Compras no Supermercado</t>
   </si>
   <si>
     <t>Débito Automático</t>
@@ -125,13 +116,7 @@
     <t>Saúde</t>
   </si>
   <si>
-    <t>Consulta Odontológica</t>
-  </si>
-  <si>
     <t>Educação</t>
-  </si>
-  <si>
-    <t>Material Escolar</t>
   </si>
   <si>
     <t>Pago</t>
@@ -143,19 +128,10 @@
     <t>Investimentos</t>
   </si>
   <si>
-    <t>Compra de Roupas</t>
-  </si>
-  <si>
-    <t>Dividendos</t>
-  </si>
-  <si>
     <t>Serviços</t>
   </si>
   <si>
     <t>Eletrônicos</t>
-  </si>
-  <si>
-    <t>Compra de Novo Telefone</t>
   </si>
   <si>
     <t>Rótulos de Linha</t>
@@ -165,36 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Soma de Valor </t>
-  </si>
-  <si>
-    <t>Faxina do Apartamento</t>
-  </si>
-  <si>
-    <t>Bonificação</t>
-  </si>
-  <si>
-    <t>Jantar de Negócios</t>
-  </si>
-  <si>
-    <t>Happy Hour</t>
-  </si>
-  <si>
-    <t>Compra de Notebook</t>
-  </si>
-  <si>
-    <t>Corte de Cabelo</t>
-  </si>
-  <si>
-    <t>Consulta Oftalmológica</t>
-  </si>
-  <si>
-    <t>Livros Diversos</t>
-  </si>
-  <si>
-    <t>Teatro</t>
-  </si>
-  <si>
-    <t>Material Escritório</t>
   </si>
   <si>
     <t>Mês</t>
@@ -210,6 +156,144 @@
   </si>
   <si>
     <t>Meta de Reserva</t>
+  </si>
+  <si>
+    <t>Renda Fixa</t>
+  </si>
+  <si>
+    <t>Utilidades Domésticas</t>
+  </si>
+  <si>
+    <t>Presentes</t>
+  </si>
+  <si>
+    <t>Beleza</t>
+  </si>
+  <si>
+    <t>Pet Care</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>Gastronomia</t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>Utilidades Dom.</t>
+  </si>
+  <si>
+    <t>Venda de ativos</t>
+  </si>
+  <si>
+    <t>Salário mensal</t>
+  </si>
+  <si>
+    <t>Compras no supermercado</t>
+  </si>
+  <si>
+    <t>Consulta odontológica</t>
+  </si>
+  <si>
+    <t>Material escolar</t>
+  </si>
+  <si>
+    <t>Compra de roupas de inverno</t>
+  </si>
+  <si>
+    <t>Dividendos de ações</t>
+  </si>
+  <si>
+    <t>Limpeza do apartamento</t>
+  </si>
+  <si>
+    <t>Compra de novo celular</t>
+  </si>
+  <si>
+    <t>Reparos domésticos</t>
+  </si>
+  <si>
+    <t>Presente de aniversário</t>
+  </si>
+  <si>
+    <t>Corte de cabelo e barba</t>
+  </si>
+  <si>
+    <t>Ração e petiscos para o cachorro</t>
+  </si>
+  <si>
+    <t>Reserva de pousada</t>
+  </si>
+  <si>
+    <t>Jantar em restaurante francês</t>
+  </si>
+  <si>
+    <t>Cinema e jantar</t>
+  </si>
+  <si>
+    <t>Plano de saúde</t>
+  </si>
+  <si>
+    <t>Compra de roupas</t>
+  </si>
+  <si>
+    <t>Pagamento por projeto freelancer</t>
+  </si>
+  <si>
+    <t>Manutenção do veículo</t>
+  </si>
+  <si>
+    <t>Compra de novo smartphone</t>
+  </si>
+  <si>
+    <t>Conta de energia elétrica</t>
+  </si>
+  <si>
+    <t>Aniversário da mãe</t>
+  </si>
+  <si>
+    <t>Recarga de cartão de transporte</t>
+  </si>
+  <si>
+    <t>Ingressos para teatro</t>
+  </si>
+  <si>
+    <t>Remédios de farmácia</t>
+  </si>
+  <si>
+    <t>Cursos online</t>
+  </si>
+  <si>
+    <t>Roupas de primavera</t>
+  </si>
+  <si>
+    <t>Manutenção da casa</t>
+  </si>
+  <si>
+    <t>Venda de equipamentos eletrônicos</t>
+  </si>
+  <si>
+    <t>Manutenção do computador</t>
+  </si>
+  <si>
+    <t>Troca de móveis da cozinha</t>
+  </si>
+  <si>
+    <t>Presentes para casamento</t>
+  </si>
+  <si>
+    <t>Veterinário para o pet</t>
+  </si>
+  <si>
+    <t>Salão de beleza</t>
+  </si>
+  <si>
+    <t>Jantar em restaurante italiano</t>
+  </si>
+  <si>
+    <t>Reserva de hotel para fim de semana</t>
   </si>
 </sst>
 </file>
@@ -279,7 +363,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -293,18 +377,63 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -341,8 +470,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MyStyle" pivot="0" table="0" count="10" xr9:uid="{39798326-3F1D-4122-9BE9-691654576362}">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -944,9 +1073,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Controller!$A$4:$A$12</c:f>
+              <c:f>Controller!$A$4:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Alimentação</c:v>
                 </c:pt>
@@ -971,38 +1100,74 @@
                 <c:pt idx="7">
                   <c:v>Vestuário</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>Utilidades Domésticas</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Presentes</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Beleza</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pet Care</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Viagem</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gastronomia</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Controller!$B$4:$B$12</c:f>
+              <c:f>Controller!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2460</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1550</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4200</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>950</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1750</c:v>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>840</c:v>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,7 +1643,7 @@
                   <c:v>Investimentos</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Renda fixa</c:v>
+                  <c:v>Renda Fixa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1490,10 +1655,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2350</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17150</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,15 +3865,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3723,7 +3888,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1704974" y="4067175"/>
+          <a:off x="1714499" y="3819525"/>
           <a:ext cx="11801476" cy="3238500"/>
           <a:chOff x="1685924" y="4038600"/>
           <a:chExt cx="9296401" cy="2714625"/>
@@ -6024,15 +6189,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6047,7 +6212,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1724024" y="1228725"/>
+          <a:off x="1714499" y="1133475"/>
           <a:ext cx="6096001" cy="2695575"/>
           <a:chOff x="1704974" y="3352800"/>
           <a:chExt cx="6130640" cy="3228975"/>
@@ -7006,15 +7171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>89736</xdr:rowOff>
+      <xdr:rowOff>4011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7029,10 +7194,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8105775" y="1232736"/>
-          <a:ext cx="5400675" cy="2720139"/>
+          <a:off x="8067675" y="1147011"/>
+          <a:ext cx="5400675" cy="2720140"/>
           <a:chOff x="7400924" y="1194636"/>
-          <a:chExt cx="6086476" cy="2720139"/>
+          <a:chExt cx="6086476" cy="2720140"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -7049,9 +7214,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="7400924" y="1219201"/>
-            <a:ext cx="6086476" cy="2695574"/>
-            <a:chOff x="1428748" y="3371850"/>
-            <a:chExt cx="8191501" cy="3228973"/>
+            <a:ext cx="6086476" cy="2695575"/>
+            <a:chOff x="1428748" y="3371849"/>
+            <a:chExt cx="8191501" cy="3228974"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -7115,7 +7280,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1428748" y="3371850"/>
+              <a:off x="1428748" y="3371849"/>
               <a:ext cx="8181976" cy="600075"/>
             </a:xfrm>
             <a:prstGeom prst="round2SameRect">
@@ -7232,13 +7397,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paulo" refreshedDate="45670.426537500003" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="44" xr:uid="{F268C956-27B4-4141-A58D-6E58611C5B56}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paulo" refreshedDate="45671.407183796298" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="44" xr:uid="{F268C956-27B4-4141-A58D-6E58611C5B56}">
   <cacheSource type="worksheet">
     <worksheetSource name="tbl_operations"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-08-01T00:00:00" maxDate="2024-10-30T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-08-01T00:00:00" maxDate="2024-11-01T00:00:00"/>
     </cacheField>
     <cacheField name="Mês" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="10" count="3">
@@ -7254,8 +7419,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Categoria" numFmtId="0">
-      <sharedItems count="10">
-        <s v="Renda fixa"/>
+      <sharedItems count="19">
+        <s v="Renda Fixa"/>
         <s v="Alimentação"/>
         <s v="Transporte"/>
         <s v="Lazer"/>
@@ -7265,13 +7430,22 @@
         <s v="Investimentos"/>
         <s v="Serviços"/>
         <s v="Eletrônicos"/>
+        <s v="Utilidades Domésticas"/>
+        <s v="Presentes"/>
+        <s v="Beleza"/>
+        <s v="Pet Care"/>
+        <s v="Viagem"/>
+        <s v="Gastronomia"/>
+        <s v="Freelance"/>
+        <s v="Utilidades Dom."/>
+        <s v="Venda de ativos"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Descrição" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Valor " numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="80" maxValue="5100"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="80" maxValue="5000"/>
     </cacheField>
     <cacheField name="Operação Bancária" numFmtId="0">
       <sharedItems/>
@@ -7295,7 +7469,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Salário Mensal"/>
+    <s v="Salário mensal"/>
     <n v="5000"/>
     <s v="Transferência"/>
     <s v="Recebido"/>
@@ -7305,7 +7479,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="Compras no Supermercado"/>
+    <s v="Compras no supermercado"/>
     <n v="550"/>
     <s v="Débito Automático"/>
     <s v="Pendente"/>
@@ -7335,7 +7509,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <s v="Consulta Odontológica"/>
+    <s v="Consulta odontológica"/>
     <n v="250"/>
     <s v="Transferência"/>
     <s v="Pago"/>
@@ -7345,7 +7519,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <s v="Material Escolar"/>
+    <s v="Material escolar"/>
     <n v="400"/>
     <s v="Débito Automático"/>
     <s v="Pendente"/>
@@ -7355,7 +7529,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="6"/>
-    <s v="Compra de Roupas"/>
+    <s v="Compra de roupas de inverno"/>
     <n v="600"/>
     <s v="Cartão de Crédito"/>
     <s v="Pendente"/>
@@ -7365,248 +7539,218 @@
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
-    <s v="Dividendos"/>
+    <s v="Dividendos de ações"/>
     <n v="800"/>
     <s v="Transferência"/>
     <s v="Recebido"/>
   </r>
   <r>
-    <d v="2024-08-18T00:00:00"/>
+    <d v="2024-08-15T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="8"/>
-    <s v="Faxina do Apartamento"/>
+    <s v="Limpeza do apartamento"/>
     <n v="150"/>
     <s v="Transferência"/>
     <s v="Pago"/>
   </r>
   <r>
-    <d v="2024-08-20T00:00:00"/>
+    <d v="2024-08-18T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
     <x v="9"/>
-    <s v="Compra de Novo Telefone"/>
+    <s v="Compra de novo celular"/>
     <n v="1200"/>
     <s v="Cartão de Crédito"/>
     <s v="Pendente"/>
   </r>
   <r>
-    <d v="2024-08-21T00:00:00"/>
+    <d v="2024-08-20T00:00:00"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Bonificação"/>
-    <n v="1000"/>
-    <s v="Transferência"/>
-    <s v="Recebido"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="Reparos domésticos"/>
+    <n v="450"/>
+    <s v="Débito Automático"/>
+    <s v="Pago"/>
   </r>
   <r>
     <d v="2024-08-22T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="Jantar de Negócios"/>
-    <n v="350"/>
-    <s v="Débito Automático"/>
+    <x v="11"/>
+    <s v="Presente de aniversário"/>
+    <n v="180"/>
+    <s v="Transferência"/>
     <s v="Pendente"/>
-  </r>
-  <r>
-    <d v="2024-08-23T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Gasolina"/>
-    <n v="300"/>
-    <s v="Cartão de Crédito"/>
-    <s v="Pago"/>
   </r>
   <r>
     <d v="2024-08-24T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="3"/>
-    <s v="Happy Hour"/>
-    <n v="250"/>
-    <s v="Cartão de Crédito"/>
+    <x v="12"/>
+    <s v="Corte de cabelo e barba"/>
+    <n v="80"/>
+    <s v="Débito Automático"/>
     <s v="Pago"/>
   </r>
   <r>
-    <d v="2024-08-25T00:00:00"/>
+    <d v="2024-08-28T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="4"/>
-    <s v="Consulta Oftalmológica"/>
-    <n v="250"/>
-    <s v="Transferência"/>
-    <s v="Pago"/>
-  </r>
-  <r>
-    <d v="2024-08-26T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
-    <s v="Livros Diversos"/>
-    <n v="250"/>
+    <x v="13"/>
+    <s v="Ração e petiscos para o cachorro"/>
+    <n v="200"/>
     <s v="Débito Automático"/>
-    <s v="Pendente"/>
-  </r>
-  <r>
-    <d v="2024-08-29T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <s v="Corte de Cabelo"/>
-    <n v="80"/>
-    <s v="Transferência"/>
     <s v="Pago"/>
   </r>
   <r>
     <d v="2024-08-30T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="9"/>
-    <s v="Compra de Notebook"/>
-    <n v="3000"/>
+    <x v="14"/>
+    <s v="Reserva de pousada"/>
+    <n v="750"/>
+    <s v="Transferência"/>
+    <s v="Pendente"/>
+  </r>
+  <r>
+    <d v="2024-08-31T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+    <s v="Jantar em restaurante francês"/>
+    <n v="350"/>
     <s v="Cartão de Crédito"/>
-    <s v="Pendente"/>
+    <s v="Pago"/>
   </r>
   <r>
     <d v="2024-09-01T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Salário Mensal"/>
-    <n v="4900"/>
+    <s v="Salário mensal"/>
+    <n v="5000"/>
     <s v="Transferência"/>
     <s v="Recebido"/>
   </r>
   <r>
-    <d v="2024-09-01T00:00:00"/>
+    <d v="2024-09-02T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="Compras no Supermercado"/>
-    <n v="510"/>
+    <s v="Compras no supermercado"/>
+    <n v="450"/>
     <s v="Débito Automático"/>
     <s v="Pendente"/>
-  </r>
-  <r>
-    <d v="2024-09-03T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Gasolina"/>
-    <n v="280"/>
-    <s v="Cartão de Crédito"/>
-    <s v="Pago"/>
   </r>
   <r>
     <d v="2024-09-05T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="3"/>
-    <s v="Teatro"/>
-    <n v="80"/>
-    <s v="Cartão de Crédito"/>
+    <x v="2"/>
+    <s v="Gasolina"/>
+    <n v="300"/>
+    <s v="Débito Automático"/>
     <s v="Pago"/>
   </r>
   <r>
-    <d v="2024-09-10T00:00:00"/>
+    <d v="2024-09-08T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="5"/>
-    <s v="Material Escritório"/>
-    <n v="250"/>
+    <x v="3"/>
+    <s v="Cinema e jantar"/>
+    <n v="200"/>
+    <s v="Transferência"/>
+    <s v="Pago"/>
+  </r>
+  <r>
+    <d v="2024-09-11T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Plano de saúde"/>
+    <n v="600"/>
     <s v="Débito Automático"/>
     <s v="Pendente"/>
   </r>
   <r>
-    <d v="2024-09-15T00:00:00"/>
+    <d v="2024-09-14T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Material escolar"/>
+    <n v="350"/>
+    <s v="Transferência"/>
+    <s v="Pago"/>
+  </r>
+  <r>
+    <d v="2024-09-17T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Compra de roupas"/>
+    <n v="500"/>
+    <s v="Cartão de Crédito"/>
+    <s v="Pendente"/>
+  </r>
+  <r>
+    <d v="2024-09-20T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="7"/>
-    <s v="Dividendos"/>
-    <n v="750"/>
+    <x v="16"/>
+    <s v="Pagamento por projeto freelancer"/>
+    <n v="1200"/>
     <s v="Transferência"/>
     <s v="Recebido"/>
   </r>
   <r>
-    <d v="2024-09-18T00:00:00"/>
+    <d v="2024-09-20T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
     <x v="8"/>
-    <s v="Faxina do Apartamento"/>
-    <n v="150"/>
+    <s v="Manutenção do veículo"/>
+    <n v="800"/>
     <s v="Transferência"/>
     <s v="Pago"/>
-  </r>
-  <r>
-    <d v="2024-09-21T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Bonificação"/>
-    <n v="500"/>
-    <s v="Transferência"/>
-    <s v="Recebido"/>
-  </r>
-  <r>
-    <d v="2024-09-22T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Jantar de Negócios"/>
-    <n v="350"/>
-    <s v="Débito Automático"/>
-    <s v="Pendente"/>
   </r>
   <r>
     <d v="2024-09-23T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <s v="Gasolina"/>
-    <n v="300"/>
+    <x v="9"/>
+    <s v="Compra de novo smartphone"/>
+    <n v="1500"/>
     <s v="Cartão de Crédito"/>
-    <s v="Pago"/>
-  </r>
-  <r>
-    <d v="2024-09-24T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Happy Hour"/>
-    <n v="200"/>
-    <s v="Cartão de Crédito"/>
-    <s v="Pago"/>
+    <s v="Pendente"/>
   </r>
   <r>
     <d v="2024-09-26T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="5"/>
-    <s v="Livros Diversos"/>
+    <x v="17"/>
+    <s v="Conta de energia elétrica"/>
     <n v="250"/>
     <s v="Débito Automático"/>
-    <s v="Pendente"/>
+    <s v="Pago"/>
   </r>
   <r>
     <d v="2024-09-29T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="6"/>
-    <s v="Corte de Cabelo"/>
-    <n v="80"/>
-    <s v="Transferência"/>
-    <s v="Pago"/>
+    <x v="11"/>
+    <s v="Aniversário da mãe"/>
+    <n v="400"/>
+    <s v="Cartão de Crédito"/>
+    <s v="Pendente"/>
   </r>
   <r>
     <d v="2024-10-01T00:00:00"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="Salário Mensal"/>
-    <n v="5100"/>
+    <s v="Salário mensal"/>
+    <n v="5000"/>
     <s v="Transferência"/>
     <s v="Recebido"/>
   </r>
@@ -7615,8 +7759,8 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="Compras no Supermercado"/>
-    <n v="450"/>
+    <s v="Compras no supermercado"/>
+    <n v="600"/>
     <s v="Débito Automático"/>
     <s v="Pendente"/>
   </r>
@@ -7625,8 +7769,8 @@
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
-    <s v="Gasolina"/>
-    <n v="320"/>
+    <s v="Recarga de cartão de transporte"/>
+    <n v="200"/>
     <s v="Cartão de Crédito"/>
     <s v="Pago"/>
   </r>
@@ -7635,28 +7779,58 @@
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
-    <s v="Cinema"/>
-    <n v="100"/>
-    <s v="Cartão de Crédito"/>
+    <s v="Ingressos para teatro"/>
+    <n v="180"/>
+    <s v="Transferência"/>
     <s v="Pago"/>
+  </r>
+  <r>
+    <d v="2024-10-08T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Remédios de farmácia"/>
+    <n v="120"/>
+    <s v="Débito Automático"/>
+    <s v="Pendente"/>
   </r>
   <r>
     <d v="2024-10-10T00:00:00"/>
     <x v="2"/>
     <x v="1"/>
     <x v="5"/>
-    <s v="Material Escritório"/>
-    <n v="150"/>
-    <s v="Débito Automático"/>
+    <s v="Cursos online"/>
+    <n v="350"/>
+    <s v="Cartão de Crédito"/>
     <s v="Pendente"/>
+  </r>
+  <r>
+    <d v="2024-10-13T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Roupas de primavera"/>
+    <n v="400"/>
+    <s v="Transferência"/>
+    <s v="Pago"/>
   </r>
   <r>
     <d v="2024-10-15T00:00:00"/>
     <x v="2"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="Manutenção da casa"/>
+    <n v="450"/>
+    <s v="Débito Automático"/>
+    <s v="Pago"/>
+  </r>
+  <r>
+    <d v="2024-10-18T00:00:00"/>
+    <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
-    <s v="Dividendos"/>
-    <n v="800"/>
+    <x v="18"/>
+    <s v="Venda de equipamentos eletrônicos"/>
+    <n v="1500"/>
     <s v="Transferência"/>
     <s v="Recebido"/>
   </r>
@@ -7664,85 +7838,85 @@
     <d v="2024-10-18T00:00:00"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="8"/>
-    <s v="Faxina do Apartamento"/>
-    <n v="150"/>
+    <x v="9"/>
+    <s v="Manutenção do computador"/>
+    <n v="300"/>
+    <s v="Cartão de Crédito"/>
+    <s v="Pendente"/>
+  </r>
+  <r>
+    <d v="2024-10-20T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="Troca de móveis da cozinha"/>
+    <n v="800"/>
     <s v="Transferência"/>
     <s v="Pago"/>
-  </r>
-  <r>
-    <d v="2024-10-21T00:00:00"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Bonificação"/>
-    <n v="650"/>
-    <s v="Transferência"/>
-    <s v="Recebido"/>
   </r>
   <r>
     <d v="2024-10-22T00:00:00"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="Jantar de Negócios"/>
-    <n v="250"/>
-    <s v="Débito Automático"/>
-    <s v="Pendente"/>
-  </r>
-  <r>
-    <d v="2024-10-23T00:00:00"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Gasolina"/>
+    <x v="11"/>
+    <s v="Presentes para casamento"/>
     <n v="250"/>
     <s v="Cartão de Crédito"/>
-    <s v="Pago"/>
+    <s v="Pendente"/>
   </r>
   <r>
     <d v="2024-10-24T00:00:00"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="3"/>
-    <s v="Happy Hour"/>
-    <n v="200"/>
-    <s v="Cartão de Crédito"/>
+    <x v="13"/>
+    <s v="Veterinário para o pet"/>
+    <n v="150"/>
+    <s v="Débito Automático"/>
     <s v="Pago"/>
   </r>
   <r>
     <d v="2024-10-26T00:00:00"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="5"/>
-    <s v="Livros Diversos"/>
+    <x v="12"/>
+    <s v="Salão de beleza"/>
     <n v="250"/>
-    <s v="Débito Automático"/>
+    <s v="Transferência"/>
     <s v="Pendente"/>
   </r>
   <r>
-    <d v="2024-10-29T00:00:00"/>
+    <d v="2024-10-30T00:00:00"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="6"/>
-    <s v="Corte de Cabelo"/>
-    <n v="80"/>
+    <x v="15"/>
+    <s v="Jantar em restaurante italiano"/>
+    <n v="220"/>
     <s v="Transferência"/>
-    <s v="Pago"/>
+    <s v="Pendente"/>
+  </r>
+  <r>
+    <d v="2024-10-31T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="Reserva de hotel para fim de semana"/>
+    <n v="500"/>
+    <s v="Cartão de Crédito"/>
+    <s v="Pendente"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B8BD813-83C5-485B-9433-49006489B4BD}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B8BD813-83C5-485B-9433-49006489B4BD}" name="Tabela dinâmica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField numFmtId="164" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7754,7 +7928,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="11">
+      <items count="20">
         <item x="1"/>
         <item x="5"/>
         <item x="9"/>
@@ -7765,6 +7939,15 @@
         <item x="8"/>
         <item x="2"/>
         <item x="6"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7895,15 +8078,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCD2037C-D110-438B-81A5-B8A76200FDD4}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCD2037C-D110-438B-81A5-B8A76200FDD4}" name="Tabela dinâmica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField numFmtId="164" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7915,7 +8098,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="11">
+      <items count="20">
         <item x="1"/>
         <item x="5"/>
         <item x="9"/>
@@ -7926,6 +8109,15 @@
         <item x="8"/>
         <item x="2"/>
         <item x="6"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7937,7 +8129,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -7961,6 +8153,24 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -8017,8 +8227,8 @@
     <tabular pivotCacheId="1218571924">
       <items count="3">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -8035,16 +8245,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0834D2B-2DB7-40EC-BF03-A28B4EBBB53A}" name="tbl_operations" displayName="tbl_operations" ref="A1:H45" totalsRowShown="0">
   <autoFilter ref="A1:H45" xr:uid="{E0834D2B-2DB7-40EC-BF03-A28B4EBBB53A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0D3EFE3C-662A-4A54-ADAF-D78F81606C45}" name="Data" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4C6324CD-98E0-42C9-933B-5C3A0D7B066B}" name="Mês" dataDxfId="0" dataCellStyle="Vírgula">
+    <tableColumn id="1" xr3:uid="{0D3EFE3C-662A-4A54-ADAF-D78F81606C45}" name="Data" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{4C6324CD-98E0-42C9-933B-5C3A0D7B066B}" name="Mês" dataDxfId="7" dataCellStyle="Vírgula">
       <calculatedColumnFormula>MONTH(tbl_operations[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{420E8A4F-731B-46E2-9EBC-035943C0785C}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{8C89BA60-1317-4EA3-837B-D912BEEE0C68}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{FFF0BDFE-3386-4F1C-ABCC-AF6833102188}" name="Descrição"/>
-    <tableColumn id="5" xr3:uid="{FF7C20C1-BCC8-491B-87A2-07C0ABDD2FD8}" name="Valor " dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{6636EDF8-446A-415D-BB37-3866389AB686}" name="Operação Bancária"/>
-    <tableColumn id="7" xr3:uid="{506F1DAF-C791-4D02-A321-1E30708AC427}" name="Status"/>
+    <tableColumn id="2" xr3:uid="{420E8A4F-731B-46E2-9EBC-035943C0785C}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8C89BA60-1317-4EA3-837B-D912BEEE0C68}" name="Categoria" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FFF0BDFE-3386-4F1C-ABCC-AF6833102188}" name="Descrição" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FF7C20C1-BCC8-491B-87A2-07C0ABDD2FD8}" name="Valor " dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{6636EDF8-446A-415D-BB37-3866389AB686}" name="Operação Bancária" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{506F1DAF-C791-4D02-A321-1E30708AC427}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8372,8 +8582,8 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8391,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8413,1191 +8623,1191 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>45505</v>
       </c>
       <c r="B2" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="11">
         <v>45505</v>
       </c>
       <c r="B3" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13">
+        <v>550</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2">
-        <v>550</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="11">
         <v>45507</v>
       </c>
       <c r="B4" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13">
         <v>300</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="11">
         <v>45509</v>
       </c>
       <c r="B5" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13">
+        <v>120</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="2">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="11">
         <v>45511</v>
       </c>
       <c r="B6" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="13">
         <v>250</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
+      <c r="G6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="11">
         <v>45514</v>
       </c>
       <c r="B7" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="13">
+        <v>400</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2">
-        <v>400</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>45516</v>
       </c>
       <c r="B8" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="13">
         <v>600</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="11">
         <v>45519</v>
       </c>
       <c r="B9" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13">
         <v>800</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
+      <c r="G9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45522</v>
+      <c r="A10" s="11">
+        <v>45519</v>
       </c>
       <c r="B10" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13">
         <v>150</v>
       </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
+      <c r="G10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45524</v>
+      <c r="A11" s="11">
+        <v>45522</v>
       </c>
       <c r="B11" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="13">
         <v>1200</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="H11" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45525</v>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>45524</v>
       </c>
       <c r="B12" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
-        <v>11</v>
+      <c r="D12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="13">
+        <v>450</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="11">
         <v>45526</v>
       </c>
       <c r="B13" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="13">
+        <v>180</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2">
-        <v>350</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45527</v>
+      <c r="A14" s="11">
+        <v>45528</v>
       </c>
       <c r="B14" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="13">
+        <v>80</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
-        <v>300</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
+      <c r="H14" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45528</v>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>45532</v>
       </c>
       <c r="B15" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="13">
+        <v>200</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2">
-        <v>250</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
+      <c r="H15" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45529</v>
+      <c r="A16" s="11">
+        <v>45534</v>
       </c>
       <c r="B16" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="2">
-        <v>250</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
-        <v>26</v>
+      <c r="D16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="13">
+        <v>750</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45530</v>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>45535</v>
       </c>
       <c r="B17" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2">
-        <v>250</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="13">
+        <v>350</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45533</v>
+      <c r="A18" s="11">
+        <v>45536</v>
       </c>
       <c r="B18" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="13">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="2">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
+      <c r="H18" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45534</v>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>45537</v>
       </c>
       <c r="B19" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="13">
+        <v>450</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
+      <c r="H19" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45536</v>
+      <c r="A20" s="11">
+        <v>45540</v>
       </c>
       <c r="B20" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4900</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="C20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H20" t="s">
-        <v>11</v>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13">
+        <v>300</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45536</v>
+      <c r="A21" s="11">
+        <v>45543</v>
       </c>
       <c r="B21" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2">
-        <v>510</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="13">
+        <v>200</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45538</v>
+      <c r="A22" s="11">
+        <v>45546</v>
       </c>
       <c r="B22" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="13">
+        <v>600</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2">
-        <v>280</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
+      <c r="H22" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45540</v>
+      <c r="A23" s="11">
+        <v>45549</v>
       </c>
       <c r="B23" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="2">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
+      <c r="E23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="13">
+        <v>350</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45545</v>
+      <c r="A24" s="11">
+        <v>45552</v>
       </c>
       <c r="B24" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="2">
-        <v>250</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="13">
+        <v>500</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="H24" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45550</v>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>45555</v>
       </c>
       <c r="B25" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2">
-        <v>750</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
+      <c r="D25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1200</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45553</v>
+      <c r="A26" s="11">
+        <v>45555</v>
       </c>
       <c r="B26" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="2">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="C26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H26" t="s">
-        <v>26</v>
+      <c r="D26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="13">
+        <v>800</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>45556</v>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>45558</v>
       </c>
       <c r="B27" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="2">
-        <v>500</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="C27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H27" t="s">
-        <v>11</v>
+      <c r="D27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1500</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>45557</v>
+      <c r="A28" s="11">
+        <v>45561</v>
       </c>
       <c r="B28" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="13">
+        <v>250</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="2">
-        <v>350</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
+      <c r="H28" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>45558</v>
+      <c r="A29" s="11">
+        <v>45564</v>
       </c>
       <c r="B29" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>9</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="2">
-        <v>300</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>26</v>
+      <c r="C29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="13">
+        <v>400</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>45559</v>
+      <c r="A30" s="11">
+        <v>45566</v>
       </c>
       <c r="B30" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="13">
+        <v>5000</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="2">
-        <v>200</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>45561</v>
+      <c r="A31" s="11">
+        <v>45566</v>
       </c>
       <c r="B31" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="13">
+        <v>600</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="2">
-        <v>250</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>16</v>
+      <c r="H31" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>45564</v>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>45568</v>
       </c>
       <c r="B32" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="2">
-        <v>80</v>
-      </c>
-      <c r="G32" t="s">
         <v>10</v>
       </c>
-      <c r="H32" t="s">
-        <v>26</v>
+      <c r="C32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="13">
+        <v>200</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>45566</v>
+      <c r="A33" s="11">
+        <v>45570</v>
       </c>
       <c r="B33" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="13">
+        <v>180</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5100</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
+      <c r="H33" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>45566</v>
+      <c r="A34" s="11">
+        <v>45573</v>
       </c>
       <c r="B34" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="13">
+        <v>120</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="2">
-        <v>450</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>45568</v>
+      <c r="A35" s="11">
+        <v>45575</v>
       </c>
       <c r="B35" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2">
-        <v>320</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>26</v>
+      <c r="C35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="13">
+        <v>350</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>45570</v>
+      <c r="A36" s="11">
+        <v>45578</v>
       </c>
       <c r="B36" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="13">
+        <v>400</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="F36" s="2">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>45575</v>
+      <c r="A37" s="11">
+        <v>45580</v>
       </c>
       <c r="B37" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="13">
+        <v>450</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="2">
-        <v>150</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
+      <c r="H37" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>45580</v>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>45583</v>
       </c>
       <c r="B38" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="2">
-        <v>800</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
+      <c r="D38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1500</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>45583</v>
       </c>
       <c r="B39" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="2">
-        <v>150</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="C39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H39" t="s">
-        <v>26</v>
+      <c r="D39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="13">
+        <v>300</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>45586</v>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>45585</v>
       </c>
       <c r="B40" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="13">
+        <v>800</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="2">
-        <v>650</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
+      <c r="H40" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="11">
         <v>45587</v>
       </c>
       <c r="B41" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="13">
+        <v>250</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="2">
-        <v>250</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>45588</v>
+      <c r="A42" s="11">
+        <v>45589</v>
       </c>
       <c r="B42" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="13">
+        <v>150</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2">
-        <v>250</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s">
-        <v>26</v>
+      <c r="H42" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>45589</v>
+      <c r="A43" s="11">
+        <v>45591</v>
       </c>
       <c r="B43" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="2">
-        <v>200</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" t="s">
-        <v>26</v>
+      <c r="C43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="13">
+        <v>250</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>45591</v>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>45595</v>
       </c>
       <c r="B44" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="2">
-        <v>250</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
+      <c r="C44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="13">
+        <v>220</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>45594</v>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>45596</v>
       </c>
       <c r="B45" s="10">
         <f>MONTH(tbl_operations[[#This Row],[Data]])</f>
         <v>10</v>
       </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="2">
-        <v>80</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="C45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H45" t="s">
-        <v>26</v>
+      <c r="D45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="13">
+        <v>500</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9616,19 +9826,12 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:A11"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="4" click="1" r:id="rId2">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="3" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -9639,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -9650,98 +9853,98 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
-        <v>2460</v>
+        <v>550</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5">
-        <v>2350</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
-        <v>1550</v>
+        <v>400</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5">
-        <v>17150</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5">
-        <v>4200</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5">
-        <v>19500</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
-        <v>950</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>1750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
-        <v>840</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9749,10 +9952,58 @@
         <v>35</v>
       </c>
       <c r="B12" s="5">
-        <v>12700</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
     </row>
   </sheetData>
@@ -9763,11 +10014,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650ABC95-A53A-4001-8142-3C5553EAEC63}">
-  <dimension ref="A8:U19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9776,10 +10025,13 @@
     <col min="22" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R8" s="9"/>
     </row>
-    <row r="14" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q14" s="9"/>
     </row>
     <row r="19" spans="21:21" x14ac:dyDescent="0.25">
@@ -9814,7 +10066,7 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5">
         <f>SUM(D7:D20)</f>
@@ -9823,7 +10075,7 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>10000</v>
@@ -9831,10 +10083,10 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
